--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069862.168253384</v>
+        <v>2069461.080636297</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244709.460677313</v>
+        <v>244709.4606773133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>64.72848435770639</v>
+        <v>224.5046538781231</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>89.86644210190562</v>
       </c>
       <c r="G3" t="n">
-        <v>102.0100982637089</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>142.2725166791566</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>379.5901514685256</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -902,10 +902,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>168.6031163644219</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>107.915743356385</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -1023,25 +1023,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>109.2514713600314</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>90.87914143716705</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.4776635554221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>142.2113677627843</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>154.7600856176432</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>46.71964299502689</v>
+        <v>78.36815244200454</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.50387586212028</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>30.84765070733269</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.2875490802896</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>268.1932755567387</v>
       </c>
       <c r="D11" t="n">
-        <v>259.1745796012667</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>280.9167171711722</v>
       </c>
       <c r="F11" t="n">
         <v>300.0885332591494</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>302.0218011565719</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5719161348818</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.16788127950996</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.43554009216759</v>
+        <v>75.4355400921676</v>
       </c>
       <c r="T11" t="n">
-        <v>112.1942112825169</v>
+        <v>14.77232770458268</v>
       </c>
       <c r="U11" t="n">
         <v>142.4153373993639</v>
@@ -1436,7 +1436,7 @@
         <v>268.2886935499396</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>279.6852913461383</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>77.67202513757874</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>62.30657591935726</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.79866947375403</v>
+        <v>71.79866947375405</v>
       </c>
       <c r="C13" t="n">
-        <v>57.99866431915451</v>
+        <v>57.99866431915453</v>
       </c>
       <c r="D13" t="n">
-        <v>41.6200287167329</v>
+        <v>41.62002871673292</v>
       </c>
       <c r="E13" t="n">
-        <v>40.56777857251235</v>
+        <v>40.56777857251237</v>
       </c>
       <c r="F13" t="n">
-        <v>41.03470290069866</v>
+        <v>41.03470290069868</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.30940562204651</v>
       </c>
       <c r="H13" t="n">
-        <v>47.85777324473692</v>
+        <v>47.85777324473693</v>
       </c>
       <c r="I13" t="n">
-        <v>32.83986842956627</v>
+        <v>32.83986842956628</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.10541804798358</v>
+        <v>38.10541804798359</v>
       </c>
       <c r="S13" t="n">
         <v>101.6515194465673</v>
@@ -1585,10 +1585,10 @@
         <v>174.3971915920091</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2068058733796</v>
+        <v>64.5489622286584</v>
       </c>
       <c r="W13" t="n">
-        <v>147.0252539213181</v>
+        <v>173.3736919439929</v>
       </c>
       <c r="X13" t="n">
         <v>119.018793939796</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.1819585990569</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>228.2439424421351</v>
+        <v>268.1932755567387</v>
       </c>
       <c r="D14" t="n">
         <v>259.1745796012667</v>
       </c>
       <c r="E14" t="n">
-        <v>280.9167171711722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>300.0885332591494</v>
@@ -1625,7 +1625,7 @@
         <v>219.5719161348818</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.87221378849334</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>248.988435317193</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.2886935499396</v>
       </c>
       <c r="Y14" t="n">
         <v>279.6852913461383</v>
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>9.973562680739127</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353611</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.24624387701727</v>
+        <v>71.79866947375403</v>
       </c>
       <c r="C16" t="n">
         <v>57.99866431915451</v>
       </c>
       <c r="D16" t="n">
-        <v>41.6200287167329</v>
+        <v>39.56466654522253</v>
       </c>
       <c r="E16" t="n">
-        <v>40.56777857251235</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.03470290069866</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>57.3094056220465</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>38.10541804798358</v>
       </c>
       <c r="S16" t="n">
         <v>101.6515194465673</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353611</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.6311968888871</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>238.9206519796394</v>
       </c>
       <c r="G20" t="n">
-        <v>240.8539198770606</v>
+        <v>240.8539198770619</v>
       </c>
       <c r="H20" t="n">
         <v>158.4040348553719</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>48.48533444166022</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>37.91997247481392</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2400,7 +2400,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>48.48533444166067</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>77.67202513757874</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2570,10 +2570,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6622200514589</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>23.0194667685665</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133617</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2798,7 +2798,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.75422534068173</v>
+        <v>49.48480478178465</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,7 +2852,7 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2877,7 +2877,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>130.9922385581939</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3360,7 +3360,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3402,7 +3402,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3986,7 +3986,7 @@
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404749</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
         <v>245.8138815378969</v>
@@ -4037,7 +4037,7 @@
         <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985182</v>
       </c>
       <c r="X44" t="n">
         <v>212.0807739312646</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318832</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633.1784683920173</v>
+        <v>661.7540301935421</v>
       </c>
       <c r="C2" t="n">
-        <v>633.1784683920173</v>
+        <v>661.7540301935421</v>
       </c>
       <c r="D2" t="n">
-        <v>633.1784683920173</v>
+        <v>288.9300654207657</v>
       </c>
       <c r="E2" t="n">
-        <v>567.7961609599906</v>
+        <v>62.15768776609589</v>
       </c>
       <c r="F2" t="n">
-        <v>557.6853743105651</v>
+        <v>52.04690111667027</v>
       </c>
       <c r="G2" t="n">
-        <v>545.621791805157</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H2" t="n">
-        <v>212.8005174024663</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I2" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J2" t="n">
         <v>111.981862884068</v>
@@ -4337,43 +4337,43 @@
         <v>700.0076080137969</v>
       </c>
       <c r="M2" t="n">
-        <v>993.2408372599762</v>
+        <v>1093.246774266885</v>
       </c>
       <c r="N2" t="n">
-        <v>1371.572195947692</v>
+        <v>1371.572195947691</v>
       </c>
       <c r="O2" t="n">
-        <v>1676.576780420526</v>
+        <v>1676.576780420525</v>
       </c>
       <c r="P2" t="n">
-        <v>1904.733676876579</v>
+        <v>1904.733676876578</v>
       </c>
       <c r="Q2" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="R2" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S2" t="n">
-        <v>1811.93695519347</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="T2" t="n">
-        <v>1587.578008924481</v>
+        <v>1774.806984294127</v>
       </c>
       <c r="U2" t="n">
-        <v>1332.692672638475</v>
+        <v>1774.806984294127</v>
       </c>
       <c r="V2" t="n">
-        <v>995.7133985344162</v>
+        <v>1437.827710190068</v>
       </c>
       <c r="W2" t="n">
-        <v>633.1784683920173</v>
+        <v>1437.827710190068</v>
       </c>
       <c r="X2" t="n">
-        <v>633.1784683920173</v>
+        <v>1055.797569711561</v>
       </c>
       <c r="Y2" t="n">
-        <v>633.1784683920173</v>
+        <v>1055.797569711561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.6702249799646</v>
+        <v>578.3278222645431</v>
       </c>
       <c r="C3" t="n">
-        <v>631.9665522209193</v>
+        <v>416.6241495054978</v>
       </c>
       <c r="D3" t="n">
-        <v>493.1279152111314</v>
+        <v>277.7855124957099</v>
       </c>
       <c r="E3" t="n">
-        <v>346.0999052680026</v>
+        <v>130.7575025525811</v>
       </c>
       <c r="F3" t="n">
-        <v>211.406107217877</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3656039212013</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I3" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J3" t="n">
-        <v>39.98331861126232</v>
+        <v>100.2374651443685</v>
       </c>
       <c r="K3" t="n">
-        <v>269.473871171451</v>
+        <v>329.7280177045571</v>
       </c>
       <c r="L3" t="n">
-        <v>635.2957163415666</v>
+        <v>695.5498628746727</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.329069851793</v>
+        <v>695.5498628746727</v>
       </c>
       <c r="N3" t="n">
-        <v>1615.122637666164</v>
+        <v>1147.098430717673</v>
       </c>
       <c r="O3" t="n">
-        <v>1615.122637666164</v>
+        <v>1539.298381501824</v>
       </c>
       <c r="P3" t="n">
-        <v>1917.218556941862</v>
+        <v>1841.394300777521</v>
       </c>
       <c r="Q3" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="R3" t="n">
-        <v>1939.381661658062</v>
+        <v>1939.381661658061</v>
       </c>
       <c r="S3" t="n">
-        <v>1786.582174670802</v>
+        <v>1786.582174670801</v>
       </c>
       <c r="T3" t="n">
-        <v>1597.897070836787</v>
+        <v>1597.897070836786</v>
       </c>
       <c r="U3" t="n">
-        <v>1379.402278435097</v>
+        <v>1597.897070836786</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.006655883431</v>
+        <v>1369.50144828512</v>
       </c>
       <c r="W3" t="n">
-        <v>1151.006655883431</v>
+        <v>1128.185579518431</v>
       </c>
       <c r="X3" t="n">
-        <v>953.0896677612255</v>
+        <v>930.2685913962251</v>
       </c>
       <c r="Y3" t="n">
-        <v>953.0896677612255</v>
+        <v>737.7472650458039</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="C4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="D4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="E4" t="n">
-        <v>428.3329510499658</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="F4" t="n">
-        <v>428.3329510499658</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="G4" t="n">
-        <v>259.4132024178158</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0405571970896</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I4" t="n">
-        <v>100.0405571970896</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J4" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="K4" t="n">
-        <v>73.58750635590573</v>
+        <v>73.58750635590572</v>
       </c>
       <c r="L4" t="n">
         <v>174.1945857561652</v>
@@ -4507,31 +4507,31 @@
         <v>572.0425638571948</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.0425638571948</v>
+        <v>533.5052225108838</v>
       </c>
       <c r="R4" t="n">
-        <v>572.0425638571948</v>
+        <v>383.9834411252619</v>
       </c>
       <c r="S4" t="n">
-        <v>572.0425638571948</v>
+        <v>170.2736785289495</v>
       </c>
       <c r="T4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="U4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="V4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="W4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="X4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.0425638571948</v>
+        <v>39.98331861126231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.9154112060651</v>
+        <v>1615.741535140362</v>
       </c>
       <c r="C5" t="n">
-        <v>434.9816525388724</v>
+        <v>1233.807776473169</v>
       </c>
       <c r="D5" t="n">
-        <v>62.1576877660959</v>
+        <v>860.9838117003931</v>
       </c>
       <c r="E5" t="n">
-        <v>62.1576877660959</v>
+        <v>466.1980918064999</v>
       </c>
       <c r="F5" t="n">
-        <v>52.04690111667028</v>
+        <v>52.04690111667027</v>
       </c>
       <c r="G5" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H5" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I5" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J5" t="n">
         <v>111.981862884068</v>
@@ -4571,46 +4571,46 @@
         <v>352.1222349288507</v>
       </c>
       <c r="L5" t="n">
-        <v>700.0076080137969</v>
+        <v>600.0016710068878</v>
       </c>
       <c r="M5" t="n">
-        <v>993.2408372599762</v>
+        <v>993.2408372599757</v>
       </c>
       <c r="N5" t="n">
-        <v>1371.572195947692</v>
+        <v>1371.572195947691</v>
       </c>
       <c r="O5" t="n">
-        <v>1676.576780420526</v>
+        <v>1676.576780420525</v>
       </c>
       <c r="P5" t="n">
-        <v>1904.733676876579</v>
+        <v>1904.733676876578</v>
       </c>
       <c r="Q5" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="R5" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="S5" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="T5" t="n">
-        <v>1774.806984294127</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="U5" t="n">
-        <v>1774.806984294127</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="V5" t="n">
-        <v>1774.806984294127</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="W5" t="n">
-        <v>1604.500806148246</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.500806148246</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.958950724084</v>
+        <v>1999.165930563115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793.6702249799646</v>
+        <v>819.3582216600045</v>
       </c>
       <c r="C6" t="n">
-        <v>631.9665522209193</v>
+        <v>657.6545489009592</v>
       </c>
       <c r="D6" t="n">
-        <v>493.1279152111314</v>
+        <v>518.8159118911713</v>
       </c>
       <c r="E6" t="n">
-        <v>346.0999052680026</v>
+        <v>371.7879019480424</v>
       </c>
       <c r="F6" t="n">
         <v>237.0941038979167</v>
@@ -4641,19 +4641,19 @@
         <v>108.3656039212013</v>
       </c>
       <c r="I6" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2374651443685</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="K6" t="n">
-        <v>329.7280177045571</v>
+        <v>167.2715093930755</v>
       </c>
       <c r="L6" t="n">
-        <v>329.7280177045571</v>
+        <v>167.2715093930755</v>
       </c>
       <c r="M6" t="n">
-        <v>814.7613712147836</v>
+        <v>652.3048629033019</v>
       </c>
       <c r="N6" t="n">
         <v>1147.098430717673</v>
@@ -4665,31 +4665,31 @@
         <v>1841.394300777521</v>
       </c>
       <c r="Q6" t="n">
-        <v>1999.165930563116</v>
+        <v>1999.165930563115</v>
       </c>
       <c r="R6" t="n">
-        <v>1939.381661658062</v>
+        <v>1939.381661658061</v>
       </c>
       <c r="S6" t="n">
-        <v>1786.582174670802</v>
+        <v>1939.381661658061</v>
       </c>
       <c r="T6" t="n">
-        <v>1597.897070836787</v>
+        <v>1939.381661658061</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.402278435097</v>
+        <v>1720.886869256371</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.006655883431</v>
+        <v>1610.531847680582</v>
       </c>
       <c r="W6" t="n">
-        <v>1151.006655883431</v>
+        <v>1369.215978913892</v>
       </c>
       <c r="X6" t="n">
-        <v>953.0896677612255</v>
+        <v>1171.298990791686</v>
       </c>
       <c r="Y6" t="n">
-        <v>953.0896677612255</v>
+        <v>978.7776644412654</v>
       </c>
     </row>
     <row r="7">
@@ -4705,28 +4705,28 @@
         <v>193.0552117834996</v>
       </c>
       <c r="D7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="E7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="F7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="G7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="H7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="I7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="J7" t="n">
-        <v>39.98331861126232</v>
+        <v>39.98331861126231</v>
       </c>
       <c r="K7" t="n">
-        <v>73.58750635590573</v>
+        <v>73.58750635590572</v>
       </c>
       <c r="L7" t="n">
         <v>174.1945857561652</v>
@@ -4756,19 +4756,19 @@
         <v>572.0425638571948</v>
       </c>
       <c r="U7" t="n">
-        <v>572.0425638571948</v>
+        <v>284.8523243462946</v>
       </c>
       <c r="V7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="W7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="X7" t="n">
-        <v>572.0425638571948</v>
+        <v>193.0552117834996</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.6105804678795</v>
+        <v>193.0552117834996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.848713963107</v>
+        <v>962.6041949210367</v>
       </c>
       <c r="C8" t="n">
-        <v>1235.848713963107</v>
+        <v>580.6704362538439</v>
       </c>
       <c r="D8" t="n">
-        <v>863.02474919033</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>207.8464714810675</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>197.7356848316419</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>185.6721023262339</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1786.215572286826</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1629.892253481126</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1629.892253481126</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.892253481126</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X8" t="n">
-        <v>1629.892253481126</v>
+        <v>1356.647734439056</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.892253481126</v>
+        <v>1356.647734439056</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>659.7968924819045</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>659.7968924819045</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>520.9582554721165</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4899,34 +4899,34 @@
         <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>2086.089750782109</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.737661613587</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>819.2163352631653</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1168.9570685248</v>
+        <v>1212.415797122866</v>
       </c>
       <c r="C11" t="n">
-        <v>898.0547699826393</v>
+        <v>941.5134985807057</v>
       </c>
       <c r="D11" t="n">
-        <v>636.2622653348951</v>
+        <v>941.5134985807057</v>
       </c>
       <c r="E11" t="n">
-        <v>636.2622653348951</v>
+        <v>657.7592388118449</v>
       </c>
       <c r="F11" t="n">
-        <v>333.1425347700978</v>
+        <v>354.6395082470476</v>
       </c>
       <c r="G11" t="n">
-        <v>333.1425347700978</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H11" t="n">
-        <v>111.3527204924394</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I11" t="n">
         <v>49.56698182626785</v>
@@ -5042,25 +5042,25 @@
         <v>121.5655260990735</v>
       </c>
       <c r="K11" t="n">
-        <v>404.8336564665859</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5409636200764</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M11" t="n">
-        <v>1254.780129873164</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N11" t="n">
-        <v>1633.11148856088</v>
+        <v>1589.98373023815</v>
       </c>
       <c r="O11" t="n">
-        <v>2046.938007102258</v>
+        <v>2003.810248779528</v>
       </c>
       <c r="P11" t="n">
-        <v>2275.094903558311</v>
+        <v>2340.789079304126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.349091313392</v>
+        <v>2458.361741847562</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313392</v>
@@ -5069,22 +5069,22 @@
         <v>2402.151576068778</v>
       </c>
       <c r="T11" t="n">
-        <v>2288.824089924822</v>
+        <v>2387.230032932837</v>
       </c>
       <c r="U11" t="n">
-        <v>2144.970213763848</v>
+        <v>2243.376156771863</v>
       </c>
       <c r="V11" t="n">
-        <v>1919.022399784822</v>
+        <v>2017.428342792837</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.518929767456</v>
+        <v>1765.92487277547</v>
       </c>
       <c r="X11" t="n">
-        <v>1396.520249413981</v>
+        <v>1494.926192421996</v>
       </c>
       <c r="Y11" t="n">
-        <v>1396.520249413981</v>
+        <v>1212.415797122866</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510426</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743272</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I12" t="n">
         <v>49.56698182626785</v>
@@ -5145,25 +5145,25 @@
         <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.62888713626</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>314.1314426175826</v>
+        <v>372.0197311247004</v>
       </c>
       <c r="C13" t="n">
-        <v>255.5469332042952</v>
+        <v>313.435221711413</v>
       </c>
       <c r="D13" t="n">
-        <v>213.5065001570903</v>
+        <v>271.3947886642081</v>
       </c>
       <c r="E13" t="n">
-        <v>172.5289460434414</v>
+        <v>230.4172345505592</v>
       </c>
       <c r="F13" t="n">
-        <v>131.0797511942509</v>
+        <v>188.9680397013686</v>
       </c>
       <c r="G13" t="n">
         <v>131.0797511942509</v>
       </c>
       <c r="H13" t="n">
-        <v>82.73856609855702</v>
+        <v>82.73856609855704</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626785</v>
@@ -5200,16 +5200,16 @@
         <v>99.52681635684269</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9529381700303</v>
+        <v>241.9529381700302</v>
       </c>
       <c r="L13" t="n">
-        <v>451.3819516388339</v>
+        <v>451.3819516388338</v>
       </c>
       <c r="M13" t="n">
-        <v>678.1973918349798</v>
+        <v>678.1973918349797</v>
       </c>
       <c r="N13" t="n">
-        <v>905.4416676531243</v>
+        <v>905.4416676531242</v>
       </c>
       <c r="O13" t="n">
         <v>1112.727248217358</v>
@@ -5230,19 +5230,19 @@
         <v>1092.253035037907</v>
       </c>
       <c r="U13" t="n">
-        <v>916.0942556520388</v>
+        <v>916.0942556520386</v>
       </c>
       <c r="V13" t="n">
-        <v>766.3904113354937</v>
+        <v>850.893283703899</v>
       </c>
       <c r="W13" t="n">
-        <v>617.8800538392127</v>
+        <v>675.7683423463304</v>
       </c>
       <c r="X13" t="n">
-        <v>497.6590498596207</v>
+        <v>555.5473383667385</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.6553511769301</v>
+        <v>444.5436396840479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1655.645254316346</v>
+        <v>1416.155183338492</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.095817506108</v>
+        <v>1145.252884796331</v>
       </c>
       <c r="D14" t="n">
-        <v>1163.303312858364</v>
+        <v>883.4603801485874</v>
       </c>
       <c r="E14" t="n">
-        <v>879.5490530895032</v>
+        <v>883.4603801485874</v>
       </c>
       <c r="F14" t="n">
-        <v>576.4293225247059</v>
+        <v>580.3406495837901</v>
       </c>
       <c r="G14" t="n">
-        <v>271.3567961039262</v>
+        <v>275.2681231630104</v>
       </c>
       <c r="H14" t="n">
-        <v>49.56698182626785</v>
+        <v>53.47830888535203</v>
       </c>
       <c r="I14" t="n">
         <v>49.56698182626785</v>
@@ -5279,25 +5279,25 @@
         <v>230.3874601676177</v>
       </c>
       <c r="K14" t="n">
-        <v>470.5278322124004</v>
+        <v>579.3497662809446</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5409636200764</v>
+        <v>950.3755482227904</v>
       </c>
       <c r="M14" t="n">
-        <v>1254.780129873164</v>
+        <v>1452.436648544422</v>
       </c>
       <c r="N14" t="n">
-        <v>1741.933422629424</v>
+        <v>1830.768007232138</v>
       </c>
       <c r="O14" t="n">
-        <v>2046.938007102258</v>
+        <v>2135.772591704972</v>
       </c>
       <c r="P14" t="n">
-        <v>2275.094903558311</v>
+        <v>2363.929488161025</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.349091313392</v>
+        <v>2458.361741847562</v>
       </c>
       <c r="R14" t="n">
         <v>2478.349091313392</v>
@@ -5309,19 +5309,19 @@
         <v>2365.021605169436</v>
       </c>
       <c r="U14" t="n">
-        <v>2221.167729008462</v>
+        <v>2221.167729008463</v>
       </c>
       <c r="V14" t="n">
-        <v>2221.167729008462</v>
+        <v>2221.167729008463</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.167729008462</v>
+        <v>1969.664258991096</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.167729008462</v>
+        <v>1698.665578637622</v>
       </c>
       <c r="Y14" t="n">
-        <v>1938.657333709333</v>
+        <v>1416.155183338492</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.0161906131302</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540849</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D15" t="n">
-        <v>538.473880844297</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011682</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510426</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G15" t="n">
-        <v>128.0235728743272</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H15" t="n">
         <v>117.9492671362069</v>
@@ -5361,46 +5361,46 @@
         <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346017</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344828</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.28159146795</v>
+        <v>1701.432525723027</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252101</v>
+        <v>2093.632476507178</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.577461527798</v>
+        <v>2395.728395782875</v>
       </c>
       <c r="Q15" t="n">
         <v>2478.349091313392</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.765335421078</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587064</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185374</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.189816633708</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.873947867018</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.956959744812</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943912</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.0197311247004</v>
+        <v>287.5168587562952</v>
       </c>
       <c r="C16" t="n">
-        <v>313.435221711413</v>
+        <v>228.9323493430078</v>
       </c>
       <c r="D16" t="n">
-        <v>271.394788664208</v>
+        <v>188.9680397013686</v>
       </c>
       <c r="E16" t="n">
-        <v>230.4172345505592</v>
+        <v>188.9680397013686</v>
       </c>
       <c r="F16" t="n">
         <v>188.9680397013686</v>
@@ -5428,7 +5428,7 @@
         <v>131.0797511942509</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73856609855702</v>
+        <v>82.73856609855707</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626785</v>
@@ -5440,46 +5440,46 @@
         <v>241.9529381700306</v>
       </c>
       <c r="L16" t="n">
-        <v>451.3819516388342</v>
+        <v>451.3819516388341</v>
       </c>
       <c r="M16" t="n">
-        <v>678.1973918349802</v>
+        <v>678.19739183498</v>
       </c>
       <c r="N16" t="n">
-        <v>905.4416676531246</v>
+        <v>905.4416676531245</v>
       </c>
       <c r="O16" t="n">
         <v>1112.727248217358</v>
       </c>
       <c r="P16" t="n">
-        <v>1284.517666014041</v>
+        <v>1284.51766601404</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.569151829066</v>
+        <v>1355.569151829065</v>
       </c>
       <c r="R16" t="n">
-        <v>1355.569151829066</v>
+        <v>1317.078830568475</v>
       </c>
       <c r="S16" t="n">
-        <v>1252.890849357785</v>
+        <v>1214.400528097195</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.743356298497</v>
+        <v>1092.253035037907</v>
       </c>
       <c r="U16" t="n">
-        <v>954.5845769126287</v>
+        <v>916.0942556520388</v>
       </c>
       <c r="V16" t="n">
-        <v>804.8807325960836</v>
+        <v>766.3904113354938</v>
       </c>
       <c r="W16" t="n">
-        <v>629.755791238515</v>
+        <v>591.2654699779252</v>
       </c>
       <c r="X16" t="n">
-        <v>509.5347872589231</v>
+        <v>471.0444659983331</v>
       </c>
       <c r="Y16" t="n">
-        <v>398.5310885762325</v>
+        <v>360.0407673156428</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051238</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C17" t="n">
         <v>1116.167124175249</v>
@@ -5519,22 +5519,22 @@
         <v>361.7058981438563</v>
       </c>
       <c r="L17" t="n">
-        <v>740.4285586866467</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.667724939735</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.377220162709</v>
+        <v>1481.161796169606</v>
       </c>
       <c r="O17" t="n">
-        <v>1986.381804635543</v>
+        <v>1786.16638064244</v>
       </c>
       <c r="P17" t="n">
-        <v>2214.538701091597</v>
+        <v>2183.701413633752</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.349091313392</v>
+        <v>2447.511803855548</v>
       </c>
       <c r="R17" t="n">
         <v>2478.349091313392</v>
@@ -5552,13 +5552,13 @@
         <v>2166.165354449509</v>
       </c>
       <c r="W17" t="n">
-        <v>1976.447623098314</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X17" t="n">
         <v>1767.234681411012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1546.510024778053</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="18">
@@ -5592,49 +5592,49 @@
         <v>49.56698182626785</v>
       </c>
       <c r="J18" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K18" t="n">
-        <v>339.3116809195627</v>
+        <v>264.1607466644861</v>
       </c>
       <c r="L18" t="n">
-        <v>705.1335260896783</v>
+        <v>629.9825918346017</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.166879599905</v>
+        <v>1115.015945344828</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.432525723027</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q18" t="n">
         <v>2478.349091313392</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421078</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T18" t="n">
-        <v>2077.080231587064</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U18" t="n">
-        <v>1858.585439185374</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V18" t="n">
-        <v>1630.189816633708</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W18" t="n">
-        <v>1388.873947867018</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X18" t="n">
-        <v>1190.956959744812</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y18" t="n">
         <v>1088.299185109573</v>
@@ -5683,13 +5683,13 @@
         <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852474</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809371</v>
+        <v>518.6577433440625</v>
       </c>
       <c r="P19" t="n">
-        <v>584.8430443090749</v>
+        <v>581.6262270722003</v>
       </c>
       <c r="Q19" t="n">
         <v>584.8430443090749</v>
@@ -5732,13 +5732,13 @@
         <v>1116.167124175249</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936766</v>
+        <v>916.1603581936769</v>
       </c>
       <c r="E20" t="n">
-        <v>694.1918370909875</v>
+        <v>694.1918370909877</v>
       </c>
       <c r="F20" t="n">
-        <v>452.857845192362</v>
+        <v>452.8578451923625</v>
       </c>
       <c r="G20" t="n">
         <v>209.5710574377546</v>
@@ -5762,16 +5762,16 @@
         <v>1102.83043748189</v>
       </c>
       <c r="N20" t="n">
-        <v>1511.999083627451</v>
+        <v>1481.161796169606</v>
       </c>
       <c r="O20" t="n">
-        <v>1817.003668100284</v>
+        <v>1905.838252702998</v>
       </c>
       <c r="P20" t="n">
-        <v>2214.538701091597</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.349091313392</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R20" t="n">
         <v>2478.349091313392</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131302</v>
+        <v>898.8004595181849</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540849</v>
+        <v>737.0967867591396</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3374325594787</v>
+        <v>598.2581497493517</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3094226163499</v>
+        <v>451.2301398062229</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6156245662243</v>
+        <v>316.5363417560973</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895088</v>
+        <v>187.8078417793818</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9492671362069</v>
+        <v>87.86998432607989</v>
       </c>
       <c r="I21" t="n">
         <v>49.56698182626785</v>
       </c>
       <c r="J21" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3116809195627</v>
+        <v>264.1607466644861</v>
       </c>
       <c r="L21" t="n">
         <v>629.9825918346017</v>
@@ -5853,28 +5853,28 @@
         <v>2478.349091313392</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408338</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S21" t="n">
-        <v>2265.765335421078</v>
+        <v>2325.549604326133</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587064</v>
+        <v>2136.864500492118</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185374</v>
+        <v>1918.369708090428</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633708</v>
+        <v>1689.974085538762</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867018</v>
+        <v>1448.658216772072</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.956959744812</v>
+        <v>1250.741228649867</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943912</v>
+        <v>1058.219902299446</v>
       </c>
     </row>
     <row r="22">
@@ -5905,13 +5905,13 @@
         <v>49.56698182626785</v>
       </c>
       <c r="I22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314241</v>
       </c>
       <c r="J22" t="n">
-        <v>49.56698182626785</v>
+        <v>52.78379906314241</v>
       </c>
       <c r="K22" t="n">
-        <v>83.17116957091126</v>
+        <v>86.38798680778582</v>
       </c>
       <c r="L22" t="n">
         <v>186.9950662080453</v>
@@ -5981,37 +5981,37 @@
         <v>209.5710574377545</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J23" t="n">
         <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7058981438563</v>
+        <v>481.3777702044147</v>
       </c>
       <c r="L23" t="n">
-        <v>709.5912712288025</v>
+        <v>998.6412798246199</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.667724939735</v>
+        <v>1391.880446077708</v>
       </c>
       <c r="N23" t="n">
-        <v>1511.999083627451</v>
+        <v>1770.211804765423</v>
       </c>
       <c r="O23" t="n">
-        <v>1986.381804635544</v>
+        <v>2075.216389238257</v>
       </c>
       <c r="P23" t="n">
-        <v>2383.916837626856</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.349091313393</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S23" t="n">
         <v>2463.937314734951</v>
@@ -6020,7 +6020,7 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V23" t="n">
         <v>2166.165354449509</v>
@@ -6029,7 +6029,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y23" t="n">
         <v>1546.510024778054</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>839.0161906131307</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C24" t="n">
-        <v>677.3125178540854</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3374325594787</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510426</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743272</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J24" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K24" t="n">
-        <v>339.3116809195627</v>
+        <v>264.1607466644861</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1335260896783</v>
+        <v>629.9825918346017</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344829</v>
+        <v>1115.015945344828</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O24" t="n">
         <v>2018.481542252101</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R24" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S24" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T24" t="n">
         <v>2077.080231587064</v>
@@ -6108,10 +6108,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.956959744813</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.4356333943916</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,70 +6121,70 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.78379906314241</v>
       </c>
       <c r="I25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.78379906314241</v>
       </c>
       <c r="J25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.78379906314241</v>
       </c>
       <c r="K25" t="n">
-        <v>83.17116957091127</v>
+        <v>86.38798680778582</v>
       </c>
       <c r="L25" t="n">
-        <v>183.7782489711708</v>
+        <v>186.9950662080453</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7717550987725</v>
+        <v>304.9885723356471</v>
       </c>
       <c r="N25" t="n">
-        <v>420.1940968483729</v>
+        <v>423.4109140852474</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6577433440626</v>
+        <v>521.8745605809371</v>
       </c>
       <c r="P25" t="n">
-        <v>581.6262270722004</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="Q25" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="R25" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039664</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108492</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911531</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407797</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493828</v>
       </c>
       <c r="X25" t="n">
         <v>109.5231117359626</v>
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.6246286572</v>
+        <v>1744.089958050125</v>
       </c>
       <c r="C26" t="n">
-        <v>1370.266794745774</v>
+        <v>1476.732124138699</v>
       </c>
       <c r="D26" t="n">
-        <v>1112.018754728764</v>
+        <v>1218.484084121689</v>
       </c>
       <c r="E26" t="n">
-        <v>831.8089595906368</v>
+        <v>938.274288983562</v>
       </c>
       <c r="F26" t="n">
-        <v>532.2336936565736</v>
+        <v>638.6990230494987</v>
       </c>
       <c r="G26" t="n">
-        <v>230.7056318665279</v>
+        <v>337.1709612594531</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9256116125289</v>
+        <v>118.9256116125288</v>
       </c>
       <c r="I26" t="n">
         <v>60.68433757709126</v>
       </c>
       <c r="J26" t="n">
-        <v>244.9787457030236</v>
+        <v>237.4945479463071</v>
       </c>
       <c r="K26" t="n">
         <v>589.9307838442165</v>
@@ -6251,25 +6251,25 @@
         <v>3034.216878854563</v>
       </c>
       <c r="S26" t="n">
-        <v>2961.563828240684</v>
+        <v>3010.964892219648</v>
       </c>
       <c r="T26" t="n">
-        <v>2851.780806727461</v>
+        <v>2901.181870706425</v>
       </c>
       <c r="U26" t="n">
-        <v>2711.471395197221</v>
+        <v>2760.872459176186</v>
       </c>
       <c r="V26" t="n">
-        <v>2711.471395197221</v>
+        <v>2538.469109827894</v>
       </c>
       <c r="W26" t="n">
-        <v>2463.512389810589</v>
+        <v>2290.510104441261</v>
       </c>
       <c r="X26" t="n">
-        <v>2196.058174087848</v>
+        <v>2023.055888718521</v>
       </c>
       <c r="Y26" t="n">
-        <v>1917.092243419453</v>
+        <v>1744.089958050125</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.9970980791353</v>
+        <v>925.2844806190308</v>
       </c>
       <c r="C27" t="n">
-        <v>778.29342532009</v>
+        <v>763.5808078599855</v>
       </c>
       <c r="D27" t="n">
-        <v>639.4547883103021</v>
+        <v>624.7421708501976</v>
       </c>
       <c r="E27" t="n">
-        <v>492.4267783671734</v>
+        <v>477.7141609070688</v>
       </c>
       <c r="F27" t="n">
-        <v>357.7329803170477</v>
+        <v>343.0203628569432</v>
       </c>
       <c r="G27" t="n">
-        <v>229.0044803403322</v>
+        <v>214.2918628802277</v>
       </c>
       <c r="H27" t="n">
-        <v>129.0666228870303</v>
+        <v>114.3540054269258</v>
       </c>
       <c r="I27" t="n">
         <v>60.68433757709126</v>
@@ -6342,13 +6342,13 @@
         <v>1716.458106639608</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.854855333023</v>
+        <v>1475.142237872918</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.937867210817</v>
+        <v>1277.225249750713</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.416540860396</v>
+        <v>1084.703923400292</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.3258344603852</v>
+        <v>358.3258344603846</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2857896778318</v>
+        <v>303.2857896778315</v>
       </c>
       <c r="D28" t="n">
-        <v>264.789821261361</v>
+        <v>264.7898212613608</v>
       </c>
       <c r="E28" t="n">
-        <v>227.3567317784466</v>
+        <v>227.3567317784458</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4520015599902</v>
+        <v>189.4520015599898</v>
       </c>
       <c r="G28" t="n">
-        <v>135.1081776836066</v>
+        <v>135.1081776836062</v>
       </c>
       <c r="H28" t="n">
-        <v>90.31145721864678</v>
+        <v>90.31145721864641</v>
       </c>
       <c r="I28" t="n">
         <v>60.68433757709126</v>
       </c>
       <c r="J28" t="n">
-        <v>114.1181018922485</v>
+        <v>114.1181018922483</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0181534900186</v>
+        <v>260.0181534900183</v>
       </c>
       <c r="L28" t="n">
-        <v>472.9210967434047</v>
+        <v>472.9210967434041</v>
       </c>
       <c r="M28" t="n">
-        <v>703.210466724133</v>
+        <v>703.2104667241325</v>
       </c>
       <c r="N28" t="n">
-        <v>933.92867232686</v>
+        <v>933.9286723268598</v>
       </c>
       <c r="O28" t="n">
         <v>1144.688182675676</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.952530256941</v>
+        <v>1319.95253025694</v>
       </c>
       <c r="Q28" t="n">
         <v>1394.477945856548</v>
@@ -6415,19 +6415,19 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1809082024583</v>
+        <v>969.1809082024581</v>
       </c>
       <c r="V28" t="n">
-        <v>823.0215285166473</v>
+        <v>823.0215285166471</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4410517898128</v>
+        <v>651.4410517898126</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7645124409549</v>
+        <v>534.7645124409548</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.3052783889985</v>
+        <v>427.3052783889982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1463.880162911998</v>
+        <v>1685.848684014688</v>
       </c>
       <c r="C29" t="n">
-        <v>1196.522329000572</v>
+        <v>1418.490850103261</v>
       </c>
       <c r="D29" t="n">
-        <v>938.2742889835621</v>
+        <v>1160.242810086251</v>
       </c>
       <c r="E29" t="n">
-        <v>938.2742889835621</v>
+        <v>880.0330149481244</v>
       </c>
       <c r="F29" t="n">
-        <v>638.6990230494988</v>
+        <v>580.4577490140612</v>
       </c>
       <c r="G29" t="n">
-        <v>337.1709612594532</v>
+        <v>278.9296872240156</v>
       </c>
       <c r="H29" t="n">
-        <v>118.9256116125289</v>
+        <v>60.68433757709126</v>
       </c>
       <c r="I29" t="n">
         <v>60.68433757709126</v>
       </c>
       <c r="J29" t="n">
-        <v>237.4945479463071</v>
+        <v>244.9787457030236</v>
       </c>
       <c r="K29" t="n">
-        <v>589.9307838442165</v>
+        <v>597.4149816009329</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.112020782289</v>
+        <v>1057.596218539006</v>
       </c>
       <c r="M29" t="n">
-        <v>1555.647050888504</v>
+        <v>1563.13124864522</v>
       </c>
       <c r="N29" t="n">
-        <v>2046.274273429347</v>
+        <v>2053.758471186063</v>
       </c>
       <c r="O29" t="n">
-        <v>2463.574721755307</v>
+        <v>2471.058919512023</v>
       </c>
       <c r="P29" t="n">
         <v>2804.027482064487</v>
@@ -6488,25 +6488,25 @@
         <v>3034.216878854563</v>
       </c>
       <c r="S29" t="n">
-        <v>3010.222711843774</v>
+        <v>2984.232227559831</v>
       </c>
       <c r="T29" t="n">
-        <v>2900.439690330551</v>
+        <v>2874.449206046609</v>
       </c>
       <c r="U29" t="n">
-        <v>2760.130278800311</v>
+        <v>2734.139794516369</v>
       </c>
       <c r="V29" t="n">
-        <v>2537.726929452019</v>
+        <v>2511.736445168076</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.767924065387</v>
+        <v>2511.736445168076</v>
       </c>
       <c r="X29" t="n">
-        <v>2022.313708342646</v>
+        <v>2244.282229445336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1743.347777674251</v>
+        <v>1965.316298776941</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.2844806190308</v>
+        <v>939.9970980791353</v>
       </c>
       <c r="C30" t="n">
-        <v>763.5808078599855</v>
+        <v>778.29342532009</v>
       </c>
       <c r="D30" t="n">
-        <v>624.7421708501976</v>
+        <v>639.4547883103021</v>
       </c>
       <c r="E30" t="n">
         <v>492.4267783671734</v>
@@ -6564,28 +6564,28 @@
         <v>2564.617381319293</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.833112414238</v>
+        <v>2519.545729874343</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.033625426979</v>
+        <v>2366.746242887083</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.348521592964</v>
+        <v>2178.061139053068</v>
       </c>
       <c r="U30" t="n">
-        <v>1944.853729191274</v>
+        <v>1959.566346651379</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.458106639608</v>
+        <v>1731.170724099713</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.142237872918</v>
+        <v>1489.854855333023</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.225249750713</v>
+        <v>1291.937867210817</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.703923400292</v>
+        <v>1099.416540860396</v>
       </c>
     </row>
     <row r="31">
@@ -6619,19 +6619,19 @@
         <v>60.68433757709126</v>
       </c>
       <c r="J31" t="n">
-        <v>114.1181018922489</v>
+        <v>114.1181018922485</v>
       </c>
       <c r="K31" t="n">
-        <v>260.0181534900191</v>
+        <v>260.0181534900188</v>
       </c>
       <c r="L31" t="n">
-        <v>472.9210967434054</v>
+        <v>472.9210967434051</v>
       </c>
       <c r="M31" t="n">
-        <v>703.2104667241338</v>
+        <v>703.2104667241335</v>
       </c>
       <c r="N31" t="n">
-        <v>933.9286723268608</v>
+        <v>933.9286723268606</v>
       </c>
       <c r="O31" t="n">
         <v>1144.688182675677</v>
@@ -6652,16 +6652,16 @@
         <v>1141.795222957592</v>
       </c>
       <c r="U31" t="n">
-        <v>969.1809082024585</v>
+        <v>969.1809082024586</v>
       </c>
       <c r="V31" t="n">
-        <v>823.0215285166474</v>
+        <v>823.0215285166475</v>
       </c>
       <c r="W31" t="n">
-        <v>651.4410517898129</v>
+        <v>651.4410517898131</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7645124409551</v>
+        <v>534.7645124409552</v>
       </c>
       <c r="Y31" t="n">
         <v>427.3052783889985</v>
@@ -6698,19 +6698,19 @@
         <v>58.64340008715436</v>
       </c>
       <c r="J32" t="n">
-        <v>130.64194435996</v>
+        <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>511.100847650852</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>858.9862207357983</v>
+        <v>1139.623283228017</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.543918234996</v>
+        <v>1673.180980727214</v>
       </c>
       <c r="N32" t="n">
-        <v>1911.19380816882</v>
+        <v>2051.51233941493</v>
       </c>
       <c r="O32" t="n">
         <v>2356.516923887763</v>
@@ -6801,10 +6801,10 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.792174924301</v>
+        <v>2517.504792384406</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
         <v>2176.020201563132</v>
@@ -6859,19 +6859,19 @@
         <v>58.64340008715436</v>
       </c>
       <c r="K34" t="n">
-        <v>232.566119077907</v>
+        <v>92.24758783179777</v>
       </c>
       <c r="L34" t="n">
-        <v>473.4917297242757</v>
+        <v>192.8546672320573</v>
       </c>
       <c r="M34" t="n">
-        <v>591.4852358518774</v>
+        <v>451.1667046057682</v>
       </c>
       <c r="N34" t="n">
-        <v>709.9075776014778</v>
+        <v>569.5890463553686</v>
       </c>
       <c r="O34" t="n">
-        <v>808.3712240971674</v>
+        <v>668.0526928510583</v>
       </c>
       <c r="P34" t="n">
         <v>871.3397078253053</v>
@@ -6935,13 +6935,13 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479473</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M35" t="n">
         <v>1309.007660421797</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
         <v>119.4829596720247</v>
@@ -7050,16 +7050,16 @@
         <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D37" t="n">
-        <v>65.54268635500836</v>
-      </c>
-      <c r="E37" t="n">
-        <v>65.54268635500836</v>
-      </c>
-      <c r="F37" t="n">
-        <v>65.54268635500836</v>
-      </c>
-      <c r="G37" t="n">
-        <v>64.43007423039063</v>
-      </c>
       <c r="H37" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
@@ -7208,7 +7208,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
         <v>2028.08193847085</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7290,13 +7290,13 @@
         <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>81.60589854858324</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>80.49328642396551</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>88.75993133416416</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556529</v>
+        <v>1155.869458548059</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
         <v>629.3786802696717</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
         <v>469.4217245791957</v>
@@ -7643,25 +7643,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P44" t="n">
         <v>2344.792518616376</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,7 +7749,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2357.162579672078</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E46" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F46" t="n">
-        <v>66.12215891288226</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G46" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>65.00954678826453</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>98.61373453290794</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440244</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7985,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>483.3514955539058</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>467.5349037488024</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>606.5066237084873</v>
+        <v>562.8248055555873</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>196.5103163148462</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8219,10 +8219,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>441.9434809288086</v>
       </c>
       <c r="M5" t="n">
-        <v>483.3514955539058</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>240.5700992493062</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
@@ -8304,7 +8304,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>442.4091405655768</v>
+        <v>606.5066237084872</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.0110038467633</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -9009,7 +9009,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>406.1824142934095</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>197.1904394555157</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911296</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.1904394555157</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911296</v>
       </c>
       <c r="L21" t="n">
-        <v>406.1824142934095</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911296</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>529.5065482739129</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.89440951876731</v>
+        <v>280.181958599057</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.1745796012667</v>
       </c>
       <c r="E11" t="n">
-        <v>280.9167171711722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>302.0218011565719</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.5719161348818</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.16788127950997</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>97.42188357793428</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.6852913461383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.3094056220465</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>83.65784364472124</v>
       </c>
       <c r="W13" t="n">
-        <v>26.34843802267478</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>280.1819585990569</v>
       </c>
       <c r="C14" t="n">
-        <v>39.9493331146036</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>280.9167171711722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.16788127950996</v>
+        <v>57.29566749101662</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>223.6883358392361</v>
       </c>
       <c r="W14" t="n">
-        <v>248.988435317193</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.2886935499396</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.55242559673675</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.055362171510374</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.56777857251235</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.03470290069866</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.10541804798358</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>105.4006760989962</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>48.90705333917433</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.17229476705911</v>
+        <v>22.4417153259562</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727210.9130989222</v>
+        <v>727210.9130989223</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>727210.9130989222</v>
+        <v>727210.9130989221</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806005.2635188908</v>
+        <v>806005.2635188906</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="C2" t="n">
         <v>537336.8423459273</v>
       </c>
       <c r="D2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="E2" t="n">
-        <v>484807.2753992816</v>
+        <v>484807.2753992813</v>
       </c>
       <c r="F2" t="n">
-        <v>484807.2753992813</v>
+        <v>484807.2753992815</v>
       </c>
       <c r="G2" t="n">
         <v>537336.8423459274</v>
@@ -26332,28 +26332,28 @@
         <v>537336.8423459273</v>
       </c>
       <c r="I2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="J2" t="n">
         <v>519195.5251942613</v>
       </c>
       <c r="K2" t="n">
-        <v>519195.5251942615</v>
+        <v>519195.5251942613</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.8423459277</v>
+        <v>537336.8423459278</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="N2" t="n">
         <v>537336.8423459275</v>
       </c>
       <c r="O2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="P2" t="n">
-        <v>537336.8423459276</v>
+        <v>537336.8423459277</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167491.6210370258</v>
+        <v>167491.6210370257</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7924.705156238778</v>
+        <v>7924.705156238812</v>
       </c>
       <c r="E3" t="n">
         <v>116088.0659382698</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>48934.30502360797</v>
@@ -26424,7 +26424,7 @@
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>134736.3063521962</v>
+        <v>134736.3063521961</v>
       </c>
       <c r="F4" t="n">
         <v>134736.3063521962</v>
@@ -26451,7 +26451,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64014.92214455936</v>
+        <v>64014.92214455935</v>
       </c>
       <c r="C5" t="n">
-        <v>64014.92214455936</v>
+        <v>64014.92214455935</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113178.8917573542</v>
+        <v>113178.8917573543</v>
       </c>
       <c r="C6" t="n">
         <v>280670.5127943798</v>
@@ -26528,10 +26528,10 @@
         <v>278070.3432194841</v>
       </c>
       <c r="E6" t="n">
-        <v>187071.0361378132</v>
+        <v>186883.4305415749</v>
       </c>
       <c r="F6" t="n">
-        <v>303159.1020760828</v>
+        <v>302971.496479845</v>
       </c>
       <c r="G6" t="n">
         <v>259020.6496598143</v>
@@ -26540,28 +26540,28 @@
         <v>307954.9546834221</v>
       </c>
       <c r="I6" t="n">
-        <v>307954.954683422</v>
+        <v>307954.9546834222</v>
       </c>
       <c r="J6" t="n">
-        <v>93050.30024950602</v>
+        <v>92985.50983110706</v>
       </c>
       <c r="K6" t="n">
-        <v>301987.4381673846</v>
+        <v>301922.6477489857</v>
       </c>
       <c r="L6" t="n">
-        <v>233175.2451678761</v>
+        <v>233175.2451678762</v>
       </c>
       <c r="M6" t="n">
-        <v>289396.3649171477</v>
+        <v>289396.364917148</v>
       </c>
       <c r="N6" t="n">
         <v>308910.9049130455</v>
       </c>
       <c r="O6" t="n">
-        <v>267101.0775300862</v>
+        <v>267101.0775300863</v>
       </c>
       <c r="P6" t="n">
-        <v>308910.9049130456</v>
+        <v>308910.9049130457</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.791482640779</v>
+        <v>499.7914826407788</v>
       </c>
       <c r="C4" t="n">
-        <v>499.791482640779</v>
+        <v>499.7914826407788</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,7 +26808,7 @@
         <v>619.5872728283481</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="J4" t="n">
         <v>758.5542197136408</v>
@@ -26823,13 +26823,13 @@
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>109.921145523782</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>61.16788127950996</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.791482640779</v>
+        <v>499.7914826407788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.51171862421137</v>
+        <v>25.51171862421148</v>
       </c>
       <c r="E4" t="n">
         <v>94.28407156335777</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260714</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>109.921145523782</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>61.16788127950996</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.791482640779</v>
+        <v>499.7914826407788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.51171862421137</v>
+        <v>25.51171862421148</v>
       </c>
       <c r="M4" t="n">
         <v>94.28407156335777</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>326.1093783372478</v>
+        <v>166.3332088168311</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>43.48041796771878</v>
       </c>
       <c r="G3" t="n">
-        <v>25.4311167132394</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>8.216407417137702</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339677</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.51295265431332</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,7 +27667,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27676,13 +27676,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>190.3064644765531</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.4311167132394</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.8601949661179</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27828,10 +27828,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>167.2488099599946</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.33714366422353</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>187.2816938958795</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>97.57639730550272</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>98.83808684867057</v>
+        <v>67.18957740169293</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>136.4519725623604</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28059,22 +28059,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28114,28 +28114,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>43.56339224518146</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>109.921145523782</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>109.921145523782</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>109.921145523782</v>
       </c>
       <c r="Q11" t="n">
+        <v>23.37415036050481</v>
+      </c>
+      <c r="R11" t="n">
         <v>109.921145523782</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>109.921145523782</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21.26645374119019</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>88.96491619802985</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28351,28 +28351,28 @@
         <v>109.921145523782</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>109.921145523782</v>
       </c>
       <c r="L14" t="n">
-        <v>43.56339224518149</v>
+        <v>23.37415036050464</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>109.921145523782</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>109.921145523782</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>109.921145523782</v>
-      </c>
-      <c r="R14" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>109.921145523782</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>88.96491619802981</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>29.77848998202597</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28591,25 +28591,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>31.14877520994366</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>171.0890268032919</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>120.8806788490491</v>
       </c>
       <c r="S17" t="n">
         <v>171.0890268032919</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.77848998202597</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>88.9649161980298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.249310340277376</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>41.40127827312521</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>31.14877520994389</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>120.8806788490489</v>
       </c>
       <c r="P20" t="n">
         <v>171.0890268032919</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="R20" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>88.96491619802981</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29.77848998202569</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>146.0103242936256</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.249310340277347</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29062,28 +29062,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>120.8806788490489</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="M23" t="n">
-        <v>31.14877520994384</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="P23" t="n">
-        <v>171.0890268032919</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>88.96491619802937</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>21.26645374119019</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>161.0282291087962</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.40127827312521</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29296,10 +29296,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
+        <v>105.8703697943537</v>
+      </c>
+      <c r="K26" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="K26" t="n">
-        <v>105.8703697943537</v>
       </c>
       <c r="L26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29533,7 +29533,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>105.8703697943538</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>105.8703697943538</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29770,22 +29770,22 @@
         <v>141.7358901475851</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="K32" t="n">
         <v>141.7358901475851</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.7358901475851</v>
       </c>
       <c r="M32" t="n">
         <v>141.7358901475851</v>
       </c>
       <c r="N32" t="n">
-        <v>141.7358901475851</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>141.7358901475851</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>141.7358901475851</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29931,22 +29931,22 @@
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>141.7358901475851</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>141.7358901475851</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>102.4257494917418</v>
@@ -30007,7 +30007,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30016,7 +30016,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
-        <v>40.58157162934936</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>166.1290651424569</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30168,7 +30168,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>32.09772592801093</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>116.9787331327004</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30387,25 +30387,25 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>150.2831266452243</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M41" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,10 +30502,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30721,25 +30721,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>40.5815716293491</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R44" t="n">
         <v>166.1290651424569</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.56549128550395</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.51240011197672</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34705,10 +34705,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>296.1951810567467</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>281.1367895765723</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>499.791482640779</v>
+        <v>456.109664487879</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>82.77512486995374</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,10 +34939,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>250.383268765694</v>
       </c>
       <c r="M5" t="n">
-        <v>296.1951810567467</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>128.5739300826395</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>335.6939994978685</v>
+        <v>499.7914826407788</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>286.1294246136489</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3205122762529</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>492.0740330871312</v>
       </c>
       <c r="O11" t="n">
         <v>418.0065843852304</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>340.3826570955529</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.3072603586679</v>
+        <v>118.7602651953907</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.18924188467679</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.46447932381299</v>
+        <v>50.46447932381297</v>
       </c>
       <c r="K13" t="n">
         <v>143.8647695082703</v>
@@ -35586,7 +35586,7 @@
         <v>173.525674542103</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.76917759093413</v>
+        <v>71.76917759093412</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>182.6469478195453</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>352.4871778922494</v>
       </c>
       <c r="L14" t="n">
-        <v>394.9627589976524</v>
+        <v>374.7735171129756</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>507.1324245673052</v>
       </c>
       <c r="N14" t="n">
-        <v>492.0740330871312</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35665,10 +35665,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.3072603586679</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.1892418846768</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>293.6069807222617</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>83.45524801062321</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>382.5481419624146</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>553.2419143666411</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>401.5505383750628</v>
       </c>
       <c r="Q17" t="n">
         <v>266.4751416381778</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>31.14877520994391</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244629</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.45524801062321</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>122.8678373600757</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>413.3016627732931</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>428.9661177104974</v>
       </c>
       <c r="P20" t="n">
         <v>401.5505383750628</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.4751416381778</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244629</v>
       </c>
       <c r="L21" t="n">
-        <v>293.6069807222617</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.249310340277335</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>104.872622865792</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36358,28 +36358,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>363.4467112175163</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>522.4883935557629</v>
       </c>
       <c r="M23" t="n">
-        <v>428.360054253467</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>479.1744656647404</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>401.5505383750628</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244629</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>414.0226457122731</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.249310340277335</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.249310340277364</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>178.596172090117</v>
       </c>
       <c r="K26" t="n">
-        <v>348.4364021628211</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>178.5961720901171</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
         <v>355.9961978766761</v>
@@ -36847,7 +36847,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>336.3318813661247</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
         <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>493.135256900056</v>
       </c>
       <c r="M32" t="n">
         <v>538.9471691911083</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8887777109343</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>449.8213290090335</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
         <v>372.197401719356</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.6795141320733</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>243.3592026730997</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>260.9212498724353</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
@@ -37242,7 +37242,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.340419165906</v>
       </c>
       <c r="Q34" t="n">
         <v>64.27378155889393</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37312,7 +37312,7 @@
         <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>437.7928506728725</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>548.2819527058061</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>66.04134991249923</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P38" t="n">
-        <v>347.4402447044714</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,25 +37683,25 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7.522112691876044</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>80.62924081444127</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M41" t="n">
-        <v>437.7928506728724</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,10 +37798,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.161566448637</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38026,16 +38026,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.967686464235</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R44" t="n">
         <v>76.39716150335175</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>133.1357126374914</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
